--- a/batches/21/week_05_advanced_sql/day_15/day_15.xlsx
+++ b/batches/21/week_05_advanced_sql/day_15/day_15.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/modules/sql/batches/21/week_05_advanced_sql/day_15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5FBBD6-AD00-4843-8F00-FAD657EF3BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED633A74-DE79-D14C-B707-B15F06356932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{CCD79642-FE67-AE4D-A9AB-21883E2DD81F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{CCD79642-FE67-AE4D-A9AB-21883E2DD81F}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="2" r:id="rId1"/>
     <sheet name="Agenda" sheetId="1" r:id="rId2"/>
     <sheet name="Intro" sheetId="3" r:id="rId3"/>
+    <sheet name="Recap_2" sheetId="4" r:id="rId4"/>
+    <sheet name="Agenda_2" sheetId="5" r:id="rId5"/>
+    <sheet name="Stored_Procedure" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>✔ Views</t>
   </si>
@@ -233,6 +236,165 @@
    -- steps
 END;
 $$;</t>
+  </si>
+  <si>
+    <t>✔ Functions (PL/pgSQL)</t>
+  </si>
+  <si>
+    <t>CREATE FUNCTION</t>
+  </si>
+  <si>
+    <t>IN, OUT parameters</t>
+  </si>
+  <si>
+    <t>RETURNS &amp; RETURN</t>
+  </si>
+  <si>
+    <t>Calling functions</t>
+  </si>
+  <si>
+    <t>Use cases</t>
+  </si>
+  <si>
+    <t>✔ Intro to Stored Procedures</t>
+  </si>
+  <si>
+    <t>Why procedures?</t>
+  </si>
+  <si>
+    <t>Difference between functions &amp; procedures</t>
+  </si>
+  <si>
+    <t>Basic procedure creation</t>
+  </si>
+  <si>
+    <t>Insert/update logic</t>
+  </si>
+  <si>
+    <t>1️⃣ Stored Procedures — Complete Mastery</t>
+  </si>
+  <si>
+    <t>IN / OUT / INOUT</t>
+  </si>
+  <si>
+    <t>Multi-step workflows</t>
+  </si>
+  <si>
+    <t>Error handling basics</t>
+  </si>
+  <si>
+    <t>Understanding transaction-like behavior</t>
+  </si>
+  <si>
+    <t>Real-life business operations</t>
+  </si>
+  <si>
+    <t>2️⃣ IF – ELSE – ELSEIF Logic</t>
+  </si>
+  <si>
+    <t>3️⃣ LOOPS (FOR, WHILE, Basic LOOP)</t>
+  </si>
+  <si>
+    <t>4️⃣ Modular SQL (Industry Coding Patterns)</t>
+  </si>
+  <si>
+    <t>Breaking a big operation into modules</t>
+  </si>
+  <si>
+    <t>Reusable procedures</t>
+  </si>
+  <si>
+    <t>Calling procedures from procedures</t>
+  </si>
+  <si>
+    <t>A stored procedure is a saved set of SQL + logic that performs a complete operation — insert, update, multi-step workflow, loops, condition checks, etc.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Think of a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wedding Sangeet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>There’s a fixed plan:</t>
+  </si>
+  <si>
+    <t>DJ setup → lights → snacks → performances → dinner.</t>
+  </si>
+  <si>
+    <t>Nobody decides these steps again each time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It’s a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>routine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A stored procedure is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>database’s routine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -832,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11E01E7-BB46-AB43-B311-50202F066B8E}">
   <dimension ref="B4:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView topLeftCell="B43" zoomScale="133" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1359,4 +1521,262 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F5BCA5-BA0F-6A41-B990-D47AE00D053B}">
+  <dimension ref="B2:B15"/>
+  <sheetViews>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0974983-822C-6648-8066-34D065E35AE4}">
+  <dimension ref="B2:B18"/>
+  <sheetViews>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B158FF1-A88A-0845-9E1D-992E13F2D215}">
+  <dimension ref="B2:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>